--- a/Data_Base/AdBook/State_Libraries.xlsx
+++ b/Data_Base/AdBook/State_Libraries.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>State Libraries</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Библиотеки и музеи</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
@@ -193,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -217,30 +223,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FFCCCCCC"/>
@@ -269,65 +251,202 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -338,6 +457,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:E17" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="3">
+  <autoFilter ref="A5:E17"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Title" dataDxfId="2"/>
+    <tableColumn id="2" name="Address" dataDxfId="1"/>
+    <tableColumn id="3" name="Responsible People"/>
+    <tableColumn id="4" name="Latitude"/>
+    <tableColumn id="5" name="Longitude"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -603,194 +736,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>3001</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="D6">
+        <v>59.933544099999999</v>
+      </c>
+      <c r="E6">
+        <v>30.333545600000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="D7">
+        <v>59.941561</v>
+      </c>
+      <c r="E7">
+        <v>30.302320300000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="D8">
+        <v>59.937479000000003</v>
+      </c>
+      <c r="E8">
+        <v>30.288092299999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="D9">
+        <v>59.977620999999999</v>
+      </c>
+      <c r="E9">
+        <v>30.310547400000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="D10">
+        <v>59.956637100000002</v>
+      </c>
+      <c r="E10">
+        <v>30.3486084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="D11">
+        <v>59.933154000000002</v>
+      </c>
+      <c r="E11">
+        <v>30.3635853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="D12">
+        <v>59.914223</v>
+      </c>
+      <c r="E12">
+        <v>30.315141300000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="D13">
+        <v>59.937894999999997</v>
+      </c>
+      <c r="E13">
+        <v>30.314323300000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="D14">
+        <v>59.925972999999999</v>
+      </c>
+      <c r="E14">
+        <v>30.295946300000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="D15">
+        <v>59.924253</v>
+      </c>
+      <c r="E15">
+        <v>30.314887800000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="D16">
+        <v>59.938882999999997</v>
+      </c>
+      <c r="E16">
+        <v>30.316440400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="8" t="s">
         <v>37</v>
+      </c>
+      <c r="D17">
+        <v>59.9268164</v>
+      </c>
+      <c r="E17">
+        <v>30.296562900000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>